--- a/lists/Enseignants MI.xlsx
+++ b/lists/Enseignants MI.xlsx
@@ -737,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1066,25 +1066,24 @@
     <hyperlink ref="A20" r:id="rId4"/>
     <hyperlink ref="A15" r:id="rId5"/>
     <hyperlink ref="A12" r:id="rId6"/>
-    <hyperlink ref="A2" r:id="rId7"/>
-    <hyperlink ref="A5" r:id="rId8"/>
-    <hyperlink ref="A9" r:id="rId9"/>
-    <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A3" r:id="rId11"/>
-    <hyperlink ref="A26" r:id="rId12"/>
-    <hyperlink ref="A24" r:id="rId13"/>
-    <hyperlink ref="A22" r:id="rId14"/>
-    <hyperlink ref="A19" r:id="rId15"/>
-    <hyperlink ref="A18" r:id="rId16"/>
-    <hyperlink ref="A17" r:id="rId17"/>
-    <hyperlink ref="A14" r:id="rId18"/>
-    <hyperlink ref="A13" r:id="rId19"/>
-    <hyperlink ref="A8" r:id="rId20"/>
-    <hyperlink ref="A27" r:id="rId21"/>
-    <hyperlink ref="A21" r:id="rId22"/>
-    <hyperlink ref="A16" r:id="rId23"/>
+    <hyperlink ref="A5" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9"/>
+    <hyperlink ref="A2" r:id="rId10"/>
+    <hyperlink ref="A26" r:id="rId11"/>
+    <hyperlink ref="A24" r:id="rId12"/>
+    <hyperlink ref="A22" r:id="rId13"/>
+    <hyperlink ref="A19" r:id="rId14"/>
+    <hyperlink ref="A18" r:id="rId15"/>
+    <hyperlink ref="A17" r:id="rId16"/>
+    <hyperlink ref="A14" r:id="rId17"/>
+    <hyperlink ref="A13" r:id="rId18"/>
+    <hyperlink ref="A8" r:id="rId19"/>
+    <hyperlink ref="A27" r:id="rId20"/>
+    <hyperlink ref="A21" r:id="rId21"/>
+    <hyperlink ref="A16" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>